--- a/src/main/resources/data/cdes/cdes_v1.1.xlsx
+++ b/src/main/resources/data/cdes/cdes_v1.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="575">
   <si>
     <t xml:space="preserve">csvFile</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">conceptPath</t>
   </si>
   <si>
+    <t xml:space="preserve">methodology</t>
+  </si>
+  <si>
     <t xml:space="preserve">custom_file</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">/root/pet/av45</t>
   </si>
   <si>
+    <t xml:space="preserve">adni-merge</t>
+  </si>
+  <si>
     <t xml:space="preserve">FDG-PET</t>
   </si>
   <si>
@@ -106,7 +112,10 @@
     <t xml:space="preserve">Brainstem volume</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brainstem</t>
+    <t xml:space="preserve">/root/brain_anatomy/brainstem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lren-nmm-volumes</t>
   </si>
   <si>
     <t xml:space="preserve">TIV</t>
@@ -118,7 +127,7 @@
     <t xml:space="preserve">Total intra-cranial volume</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/tiv</t>
+    <t xml:space="preserve">/root/brain_anatomy/tiv</t>
   </si>
   <si>
     <t xml:space="preserve">3rd Ventricle</t>
@@ -199,7 +208,7 @@
     <t xml:space="preserve">cerebellarvermallobulesviiix</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomygrey_matter_volume/cerebellum/cerebellarvermallobulesviiix</t>
+    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesviiix</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules VI-VII</t>
@@ -1327,7 +1336,7 @@
     <t xml:space="preserve">polynominal</t>
   </si>
   <si>
-    <t xml:space="preserve">“AD”,”MCI”,”CN”</t>
+    <t xml:space="preserve">{“AD”,”Alzheimer’s Disease”},{”MCI”,”Mild Cognitive Impairment”},{”CN”,”Cognitively Normal”}</t>
   </si>
   <si>
     <t xml:space="preserve">Terms aggregating illnesses into classes. Note that the diagnosis in this categories are given only for the ADNI data set.</t>
@@ -1336,13 +1345,16 @@
     <t xml:space="preserve">/root/diagnosis/dataset_specific_diagnosis/adnicategory</t>
   </si>
   <si>
+    <t xml:space="preserve">mip-cde</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alzheimer Broad Category</t>
   </si>
   <si>
     <t xml:space="preserve">alzheimerbroadcategory</t>
   </si>
   <si>
-    <t xml:space="preserve">“PD”,”CN”,”Other”</t>
+    <t xml:space="preserve">{“AD”,”Alzheimer’s disease”},{”CN”,”Cognitively Normal”},{”Other”,”Other”},{“MCI”,”Mild cognitive impairment”}</t>
   </si>
   <si>
     <t xml:space="preserve">There will be two broad categories taken into account. Alzheimer s disease (AD) in which the diagnostic is 100% certain and &lt;Other&gt; comprising the rest of Alzheimer s related categories. The &lt;Other&gt; category refers to Alzheime s related diagnosis which origin can be traced to other pathology eg. vascular. In this category MCI diagnosis can also be found. In summary  all Alzheimer s related diagnosis that are not pure.</t>
@@ -1369,7 +1381,7 @@
     <t xml:space="preserve">neurodegenerativescategories</t>
   </si>
   <si>
-    <t xml:space="preserve">“PD”,”AD”,”HD”,”ALS”,”BD”,”MCI”,”LBD”,”CJD”,”FTD”,”MD”,”CN”</t>
+    <t xml:space="preserve">{“PD”,”Parkinson’s disease”},{”AD”,”Alzheimer’s disease”},{”HD”,”Huntington’s disease"”},{”ALS”,”Amyotrophic lateral sclerosis”},{”BD”,”Batten disease”},{”MCI”,”MCI”},{”LBD”,”Lewy body dementia”},{”CJD”,”Creutzfeldt Jakob disease”},{”FTD”,"Frontotemporal dementia"},{”MS”,”Multiple sclerosis”},{”CN”,”Cognitively normal”}</t>
   </si>
   <si>
     <t xml:space="preserve">There will be two broad categories taken into account. Parkinson s disease without disability or light disability: Without fluctuation of the effect. Dementia in Parkinson s disease</t>
@@ -1384,6 +1396,9 @@
     <t xml:space="preserve">parkinsonbroadcategory</t>
   </si>
   <si>
+    <t xml:space="preserve">{“PD”,”Dementia in Parkinson''s disease”},{”CN”,”Healthy control”},{”Other”,”Parkinson''s disease without disability or light disability: Without fluctuation of the effect”}</t>
+  </si>
+  <si>
     <t xml:space="preserve">/root/diagnosis/parkinsonbroadcategory</t>
   </si>
   <si>
@@ -1393,7 +1408,7 @@
     <t xml:space="preserve">ppmicategory</t>
   </si>
   <si>
-    <t xml:space="preserve">“PD”,”HC”,”PRODROMA”,”GENPD”,”REGUN”,”REGPD”,”REGUN”</t>
+    <t xml:space="preserve">{“PD”,”Parkinson disease”},{”HC”,”Healthy controls”},{”PRODROMA”,”Prodromal”},{”GENPD”,”Genetic PD patients with a mutation (LRRK2, GBA or SNCA)”},{”REGUN”,”Genetic Unaffected patients with a mutation (LRRK2, GBA or SNCA)”},{”REGPD”,”Genetic registry PD subjects with a mutation (LRRK2, GBA, or SNCA)”},{”REGUN”,”Genetic registry unaffected subjects with a mutation (LRRK2, GBA, or SNCA)”}</t>
   </si>
   <si>
     <t xml:space="preserve">Terms aggregating the Parkinson s diseases into classes. For this instance the diagnosis given at enrollment is taken as the clinical diagnosis. Note that the diagnosis in this categories are given only for the PPMI data set.</t>
@@ -1465,7 +1480,7 @@
     <t xml:space="preserve">agegroup</t>
   </si>
   <si>
-    <t xml:space="preserve">“-50y”,”50-59y”,”60-69y”,”70-79y”,”+80y”</t>
+    <t xml:space="preserve">{“-50y”,“-50y”},{”50-59y”,”50-59y”},{”60-69y”,”60-69y”},{”70-79y”,”70-79y”},{”+80y”,”+80y”}</t>
   </si>
   <si>
     <t xml:space="preserve">/root/demographics/agegroup</t>
@@ -1480,7 +1495,7 @@
     <t xml:space="preserve">binominal</t>
   </si>
   <si>
-    <t xml:space="preserve">“M”,”F”</t>
+    <t xml:space="preserve">{“M”,”Male”},{”F”,”Female”}</t>
   </si>
   <si>
     <t xml:space="preserve">Gender of the patient - Sex assigned at birth</t>
@@ -1495,7 +1510,7 @@
     <t xml:space="preserve">handedness</t>
   </si>
   <si>
-    <t xml:space="preserve">“R”,”L”,”A”</t>
+    <t xml:space="preserve">{“R”,”Right”},{”L”,”Left”},{”A”,”Ambidextrous”}</t>
   </si>
   <si>
     <t xml:space="preserve">Describes the tendency of the patient to use either the right or the left hand more naturally than the other.</t>
@@ -1546,7 +1561,7 @@
     <t xml:space="preserve">apoe4</t>
   </si>
   <si>
-    <t xml:space="preserve">0,1,2</t>
+    <t xml:space="preserve">{0,0},{1,1},{2,2}</t>
   </si>
   <si>
     <t xml:space="preserve">Apolipoprotein E (APOE) e4 allele: is the strongest risk factor for Late Onset Alzheimer Disease (LOAD). At least one copy of APOE-e4 </t>
@@ -1678,7 +1693,7 @@
     <t xml:space="preserve">dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">“edsd”,”adni”,”ppmi”</t>
+    <t xml:space="preserve">{“edsd”,”EDSD”},{”adni”,”ADNI”},{”ppmi”,”PPMI”}</t>
   </si>
   <si>
     <t xml:space="preserve">Variable used to differentiate datasets</t>
@@ -1830,25 +1845,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K153" activeCellId="0" sqref="K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="84.9081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.4081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.4336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,3505 +1897,4024 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
+      </c>
+      <c r="K135" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
+      </c>
+      <c r="K136" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
+      </c>
+      <c r="K137" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
+      </c>
+      <c r="K140" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H141" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="J141" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="K141" s="0" t="s">
         <v>441</v>
-      </c>
-      <c r="J141" s="0" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
+      </c>
+      <c r="K143" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>454</v>
+        <v>459</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>459</v>
+        <v>464</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>465</v>
+        <v>470</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D147" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="D147" s="0" t="s">
-        <v>462</v>
-      </c>
       <c r="E147" s="0" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>469</v>
+        <v>474</v>
+      </c>
+      <c r="K147" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>474</v>
+        <v>479</v>
+      </c>
+      <c r="K148" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
+      </c>
+      <c r="K149" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
+      </c>
+      <c r="K150" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>488</v>
+        <v>493</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>499</v>
+        <v>504</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>505</v>
+        <v>510</v>
+      </c>
+      <c r="K154" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>510</v>
+        <v>515</v>
+      </c>
+      <c r="K155" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>513</v>
+        <v>518</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>519</v>
+        <v>524</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>522</v>
+        <v>527</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>525</v>
+        <v>530</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>528</v>
+        <v>533</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>531</v>
+        <v>536</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>534</v>
+        <v>539</v>
+      </c>
+      <c r="K163" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>537</v>
+        <v>542</v>
+      </c>
+      <c r="K164" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>540</v>
+        <v>545</v>
+      </c>
+      <c r="K165" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>543</v>
+        <v>548</v>
+      </c>
+      <c r="K166" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>546</v>
+        <v>551</v>
+      </c>
+      <c r="K167" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>549</v>
+        <v>554</v>
+      </c>
+      <c r="K168" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>554</v>
+        <v>559</v>
+      </c>
+      <c r="K169" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>558</v>
+        <v>563</v>
+      </c>
+      <c r="K170" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
+      </c>
+      <c r="K171" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
+      </c>
+      <c r="K172" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
+      </c>
+      <c r="K173" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
